--- a/ig/280-281-correction-noms-orga/StructureDefinition-ror-location-status.xlsx
+++ b/ig/280-281-correction-noms-orga/StructureDefinition-ror-location-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T13:40:25+00:00</t>
+    <t>2024-02-14T09:13:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
